--- a/kspring#1.xlsx
+++ b/kspring#1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trung/blog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCFE436-BF8C-1940-8BD2-E48B1E92302C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8139162E-7C96-8645-85C2-AA075E870BD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="500" windowWidth="27540" windowHeight="17500" activeTab="1" xr2:uid="{A3D4CE5C-7380-4F9F-98BB-3F321C52265A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A3D4CE5C-7380-4F9F-98BB-3F321C52265A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="246">
   <si>
     <t>Cộng đồng lập trình PHP, NodeJS, iOS, Android</t>
   </si>
@@ -762,6 +762,9 @@
   <si>
     <t>Đã mix 2 món (kotlin + spring) với nhau rồi.
 Ngon tuyệt cú mèo 😇</t>
+  </si>
+  <si>
+    <t>yy</t>
   </si>
 </sst>
 </file>
@@ -1207,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD48223-D609-4989-98E2-71E7CE48F3FF}">
   <dimension ref="A1:S129"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1692,7 +1695,7 @@
         <v>179</v>
       </c>
       <c r="C19" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D19">
         <v>34.9</v>
@@ -1769,6 +1772,9 @@
       </c>
       <c r="B21" t="s">
         <v>199</v>
+      </c>
+      <c r="C21" t="s">
+        <v>240</v>
       </c>
       <c r="D21">
         <v>23.6</v>
@@ -2441,6 +2447,9 @@
       <c r="B45" t="s">
         <v>201</v>
       </c>
+      <c r="C45" t="s">
+        <v>245</v>
+      </c>
       <c r="D45">
         <v>9.3000000000000007</v>
       </c>
@@ -2455,6 +2464,9 @@
       <c r="B46" t="s">
         <v>164</v>
       </c>
+      <c r="C46" t="s">
+        <v>240</v>
+      </c>
       <c r="D46">
         <v>7.7</v>
       </c>
@@ -2610,6 +2622,9 @@
       <c r="B53" t="s">
         <v>221</v>
       </c>
+      <c r="C53" t="s">
+        <v>240</v>
+      </c>
       <c r="D53">
         <v>7.6</v>
       </c>
@@ -2667,6 +2682,9 @@
       </c>
       <c r="B55" t="s">
         <v>154</v>
+      </c>
+      <c r="C55" t="s">
+        <v>240</v>
       </c>
       <c r="D55">
         <v>6.8</v>
@@ -4325,7 +4343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE5A4A4-6811-7844-AD76-8D447AD41A75}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
